--- a/data/trans_orig/P2A_enfcro_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA26CB5-CD26-4ACD-82FC-0C0D97C89AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483EDEDC-500F-431E-8DAD-12B8A5D2CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B07E11FE-1A81-4818-9949-9595051F1433}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE385E7F-04F0-4F3A-BE2C-507048DE30E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>23,43%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>38,09%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,57%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>61,91%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,69%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>56,33%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1372 +197,1366 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>52,55%</t>
   </si>
   <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
     <t>48,7%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
   </si>
   <si>
     <t>51,3%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>46,17%</t>
   </si>
   <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>6,18%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>95,08%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>96,66%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C633C42F-FD4B-4995-A867-B4607DD700B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED52BC6-A41D-4DD6-912E-934E1AB7724C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3028,13 +3022,13 @@
         <v>1540782</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2047</v>
@@ -3043,28 +3037,28 @@
         <v>2095582</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3585</v>
       </c>
       <c r="N22" s="7">
-        <v>3636364</v>
+        <v>3636363</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,16 +3070,16 @@
         <v>1676</v>
       </c>
       <c r="D23" s="7">
-        <v>1735761</v>
+        <v>1735762</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1250</v>
@@ -3094,13 +3088,13 @@
         <v>1283616</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2926</v>
@@ -3109,13 +3103,13 @@
         <v>3019377</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3121,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3157,7 +3151,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3171,7 +3165,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8A8A0-AD9D-4976-95F3-180EC1ABBAC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96FEBFD-3580-47FA-BBF6-75910ACC15FC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3311,13 @@
         <v>149018</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -3332,13 +3326,13 @@
         <v>183850</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>329</v>
@@ -3347,13 +3341,13 @@
         <v>332868</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3362,13 @@
         <v>305128</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>241</v>
@@ -3383,13 +3377,13 @@
         <v>246380</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -3398,13 +3392,13 @@
         <v>551508</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3466,13 @@
         <v>278845</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>278</v>
@@ -3487,13 +3481,13 @@
         <v>297179</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>553</v>
@@ -3502,13 +3496,13 @@
         <v>576024</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3517,13 @@
         <v>408242</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>293</v>
@@ -3538,7 +3532,7 @@
         <v>313076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>175</v>
@@ -4110,10 +4104,10 @@
         <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>1142</v>
@@ -4122,13 +4116,13 @@
         <v>1242292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4137,13 @@
         <v>31206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -4158,13 +4152,13 @@
         <v>29113</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -4173,13 +4167,13 @@
         <v>60320</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4241,13 @@
         <v>1894130</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2260</v>
@@ -4262,13 +4256,13 @@
         <v>2448055</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>4021</v>
@@ -4277,13 +4271,13 @@
         <v>4342185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4292,13 @@
         <v>1532649</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>1038</v>
@@ -4313,13 +4307,13 @@
         <v>1110254</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>2486</v>
@@ -4328,13 +4322,13 @@
         <v>2642903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4384,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A026D1-E032-4125-97A4-614478E8A072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660E41EA-2DA6-4285-8FCF-B4AF542AB96B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4530,13 @@
         <v>130223</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>141</v>
@@ -4551,13 +4545,13 @@
         <v>140263</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>264</v>
@@ -4566,13 +4560,13 @@
         <v>270486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4581,13 @@
         <v>289240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -4602,13 +4596,13 @@
         <v>255492</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>533</v>
@@ -4617,13 +4611,13 @@
         <v>544732</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4685,13 @@
         <v>173138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>235</v>
@@ -4706,13 +4700,13 @@
         <v>228620</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>400</v>
@@ -4721,13 +4715,13 @@
         <v>401757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4736,13 @@
         <v>417358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>344</v>
@@ -4757,10 +4751,10 @@
         <v>334924</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>301</v>
@@ -4867,7 +4861,7 @@
         <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>540</v>
@@ -4876,13 +4870,13 @@
         <v>554542</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4891,13 @@
         <v>436563</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>345</v>
@@ -4912,13 +4906,13 @@
         <v>339377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -4927,13 +4921,13 @@
         <v>775941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4995,13 @@
         <v>347749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>362</v>
@@ -5016,13 +5010,13 @@
         <v>391441</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>674</v>
@@ -5031,13 +5025,13 @@
         <v>739190</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,7 +5046,7 @@
         <v>298299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>329</v>
@@ -5070,10 +5064,10 @@
         <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -5082,13 +5076,13 @@
         <v>555935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5150,13 @@
         <v>315798</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>353</v>
@@ -5171,13 +5165,13 @@
         <v>402697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>634</v>
@@ -5186,13 +5180,13 @@
         <v>718494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5201,13 @@
         <v>162120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -5222,13 +5216,13 @@
         <v>94152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>223</v>
@@ -5237,13 +5231,13 @@
         <v>256273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5305,13 @@
         <v>535102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>610</v>
@@ -5326,13 +5320,13 @@
         <v>725756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>1178</v>
@@ -5341,13 +5335,13 @@
         <v>1260858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5356,13 @@
         <v>56226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -5377,13 +5371,13 @@
         <v>52175</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>104</v>
@@ -5392,13 +5386,13 @@
         <v>108401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5460,13 @@
         <v>1734544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>2021</v>
@@ -5481,13 +5475,13 @@
         <v>2210784</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>3690</v>
@@ -5496,13 +5490,13 @@
         <v>3945329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5511,13 @@
         <v>1659806</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>1317</v>
@@ -5532,13 +5526,13 @@
         <v>1333758</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>2879</v>
@@ -5547,13 +5541,13 @@
         <v>2993563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5603,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7121C7-E229-4081-89A9-7D2C80693D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98895613-A6C5-4863-97D5-8EA4FCD67D4F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5749,13 @@
         <v>359253</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>192</v>
@@ -5770,13 +5764,13 @@
         <v>327781</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>352</v>
@@ -5785,13 +5779,13 @@
         <v>687034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5800,13 @@
         <v>18426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -5821,13 +5815,13 @@
         <v>27176</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5836,13 +5830,13 @@
         <v>45602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5904,13 @@
         <v>412637</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>439</v>
@@ -5925,13 +5919,13 @@
         <v>463593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>729</v>
@@ -5940,13 +5934,13 @@
         <v>876230</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5955,13 @@
         <v>15759</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -5976,13 +5970,13 @@
         <v>35622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -5991,13 +5985,13 @@
         <v>51381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6059,13 @@
         <v>534215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>800</v>
@@ -6080,13 +6074,13 @@
         <v>576726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>1318</v>
@@ -6095,13 +6089,13 @@
         <v>1110941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6110,13 @@
         <v>23037</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -6131,13 +6125,13 @@
         <v>33721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -6146,13 +6140,13 @@
         <v>56758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6214,13 @@
         <v>701600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>1100</v>
@@ -6235,25 +6229,25 @@
         <v>721760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>1739</v>
       </c>
       <c r="N13" s="7">
-        <v>1423360</v>
+        <v>1423361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>449</v>
@@ -6271,13 +6265,13 @@
         <v>22390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -6286,13 +6280,13 @@
         <v>25501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -6301,13 +6295,13 @@
         <v>47891</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>456</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6343,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6390,13 +6384,13 @@
         <v>578630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>461</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
         <v>1616</v>
@@ -6405,13 +6399,13 @@
         <v>1158780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6420,13 @@
         <v>20007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6441,13 +6435,13 @@
         <v>18433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -6456,13 +6450,13 @@
         <v>38440</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,16 +6521,16 @@
         <v>1014</v>
       </c>
       <c r="D19" s="7">
-        <v>687475</v>
+        <v>687474</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>1683</v>
@@ -6545,13 +6539,13 @@
         <v>1012720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>2697</v>
@@ -6560,13 +6554,13 @@
         <v>1700194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6575,13 @@
         <v>10280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -6629,7 +6623,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6703,25 +6697,25 @@
         <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>8451</v>
       </c>
       <c r="N22" s="7">
-        <v>6956538</v>
+        <v>6956539</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6730,13 @@
         <v>109899</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>179</v>
@@ -6751,13 +6745,13 @@
         <v>154371</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>292</v>
@@ -6766,13 +6760,13 @@
         <v>264270</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,7 +6808,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6828,7 +6822,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_enfcro_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{483EDEDC-500F-431E-8DAD-12B8A5D2CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA691A51-49F0-41B2-B734-2BE929EA1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE385E7F-04F0-4F3A-BE2C-507048DE30E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7407B897-5817-455E-970E-B98A6CC5E2EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="589">
   <si>
     <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1495 +68,1744 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>23,43%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +2217,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED52BC6-A41D-4DD6-912E-934E1AB7724C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9453481-2AEB-4BE1-AF9A-2C03E6B0A700}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2086,10 +2335,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>115772</v>
+        <v>109431</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2101,10 +2350,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I4" s="7">
-        <v>178077</v>
+        <v>170752</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2116,10 +2365,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="N4" s="7">
-        <v>293849</v>
+        <v>280183</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2137,10 +2386,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D5" s="7">
-        <v>378292</v>
+        <v>384633</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2152,10 +2401,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="I5" s="7">
-        <v>289412</v>
+        <v>296737</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2167,10 +2416,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="N5" s="7">
-        <v>667704</v>
+        <v>681370</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2241,10 +2490,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7">
-        <v>218344</v>
+        <v>201888</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2259,7 +2508,7 @@
         <v>259</v>
       </c>
       <c r="I7" s="7">
-        <v>273180</v>
+        <v>272788</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2271,10 +2520,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="N7" s="7">
-        <v>491524</v>
+        <v>474676</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2292,10 +2541,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="D8" s="7">
-        <v>517145</v>
+        <v>533601</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2310,7 +2559,7 @@
         <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>352314</v>
+        <v>352706</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2322,10 +2571,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="N8" s="7">
-        <v>869458</v>
+        <v>886306</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2396,10 +2645,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D10" s="7">
-        <v>224480</v>
+        <v>214604</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2411,10 +2660,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I10" s="7">
-        <v>362448</v>
+        <v>354865</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2426,10 +2675,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="N10" s="7">
-        <v>586927</v>
+        <v>569469</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2447,10 +2696,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D11" s="7">
-        <v>414188</v>
+        <v>424064</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2462,10 +2711,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>327296</v>
+        <v>334879</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2477,10 +2726,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="N11" s="7">
-        <v>741485</v>
+        <v>758943</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2551,10 +2800,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>259711</v>
+        <v>246061</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2566,10 +2815,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="I13" s="7">
-        <v>338401</v>
+        <v>325826</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2581,10 +2830,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="N13" s="7">
-        <v>598112</v>
+        <v>571887</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2602,10 +2851,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>259436</v>
+        <v>273086</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2617,10 +2866,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I14" s="7">
-        <v>177241</v>
+        <v>189816</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2632,10 +2881,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="N14" s="7">
-        <v>436677</v>
+        <v>462902</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2706,49 +2955,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>291467</v>
+        <v>274023</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>306</v>
+      </c>
+      <c r="I16" s="7">
+        <v>312661</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>310</v>
-      </c>
-      <c r="I16" s="7">
-        <v>316186</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>584</v>
+      </c>
+      <c r="N16" s="7">
+        <v>586684</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>606</v>
-      </c>
-      <c r="N16" s="7">
-        <v>607653</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,49 +3006,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7">
-        <v>95243</v>
+        <v>112687</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7">
+        <v>91325</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>86</v>
-      </c>
-      <c r="I17" s="7">
-        <v>87800</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>204</v>
+      </c>
+      <c r="N17" s="7">
+        <v>204012</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>182</v>
-      </c>
-      <c r="N17" s="7">
-        <v>183043</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,55 +3104,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>450</v>
+        <v>234</v>
       </c>
       <c r="D19" s="7">
-        <v>431009</v>
+        <v>225132</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>329</v>
+      </c>
+      <c r="I19" s="7">
+        <v>303650</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>612</v>
-      </c>
-      <c r="I19" s="7">
-        <v>627289</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>563</v>
+      </c>
+      <c r="N19" s="7">
+        <v>528782</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>1062</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1058298</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +3161,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>71457</v>
+        <v>67451</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>42</v>
+      </c>
+      <c r="I20" s="7">
+        <v>39284</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>49</v>
-      </c>
-      <c r="I20" s="7">
-        <v>49553</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>111</v>
+      </c>
+      <c r="N20" s="7">
+        <v>106735</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>122</v>
-      </c>
-      <c r="N20" s="7">
-        <v>121010</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,10 +3212,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2978,10 +3227,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2993,10 +3242,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3010,19 +3259,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1538</v>
+        <v>191</v>
       </c>
       <c r="D22" s="7">
-        <v>1540782</v>
+        <v>182663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>126</v>
@@ -3031,10 +3280,10 @@
         <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>2047</v>
+        <v>260</v>
       </c>
       <c r="I22" s="7">
-        <v>2095582</v>
+        <v>300227</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>128</v>
@@ -3046,10 +3295,10 @@
         <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>3585</v>
+        <v>451</v>
       </c>
       <c r="N22" s="7">
-        <v>3636363</v>
+        <v>482890</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -3067,49 +3316,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1676</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7">
-        <v>1735762</v>
+        <v>27220</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>1250</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>1283616</v>
+        <v>33681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>2926</v>
+        <v>59</v>
       </c>
       <c r="N23" s="7">
-        <v>3019377</v>
+        <v>60901</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,63 +3367,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1452</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1453801</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1994</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2040770</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3446</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3494572</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1762</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1822742</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1303</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1338427</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3065</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3161169</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3187,8 +3592,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96FEBFD-3580-47FA-BBF6-75910ACC15FC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7CF827-FE75-423A-89F6-10823639AF20}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3204,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,49 +3710,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7">
-        <v>149018</v>
+        <v>143008</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I4" s="7">
-        <v>183850</v>
+        <v>175913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="N4" s="7">
-        <v>332868</v>
+        <v>318921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,49 +3761,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D5" s="7">
-        <v>305128</v>
+        <v>311138</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I5" s="7">
-        <v>246380</v>
+        <v>254317</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="N5" s="7">
-        <v>551508</v>
+        <v>565455</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3865,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D7" s="7">
-        <v>278845</v>
+        <v>265562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I7" s="7">
-        <v>297179</v>
+        <v>289244</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="N7" s="7">
-        <v>576024</v>
+        <v>554805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3916,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D8" s="7">
-        <v>408242</v>
+        <v>421525</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="I8" s="7">
-        <v>313076</v>
+        <v>321011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>721318</v>
+        <v>742537</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,49 +4020,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D10" s="7">
-        <v>287059</v>
+        <v>279903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I10" s="7">
-        <v>410234</v>
+        <v>404285</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="N10" s="7">
-        <v>697292</v>
+        <v>684188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,49 +4071,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D11" s="7">
-        <v>394804</v>
+        <v>401960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I11" s="7">
-        <v>300616</v>
+        <v>306565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="N11" s="7">
-        <v>695420</v>
+        <v>708524</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,49 +4175,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D13" s="7">
-        <v>318894</v>
+        <v>307462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I13" s="7">
-        <v>449421</v>
+        <v>436738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="N13" s="7">
-        <v>768315</v>
+        <v>744200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,49 +4226,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D14" s="7">
-        <v>295723</v>
+        <v>307155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I14" s="7">
-        <v>166778</v>
+        <v>179461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="N14" s="7">
-        <v>462501</v>
+        <v>486616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,49 +4330,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D16" s="7">
-        <v>331884</v>
+        <v>324875</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="I16" s="7">
-        <v>393510</v>
+        <v>386284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="N16" s="7">
-        <v>725393</v>
+        <v>711158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,49 +4381,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>97545</v>
+        <v>104554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>54290</v>
+        <v>61516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="N17" s="7">
-        <v>151836</v>
+        <v>166071</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,55 +4479,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>475</v>
+        <v>261</v>
       </c>
       <c r="D19" s="7">
-        <v>528431</v>
+        <v>287577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>667</v>
+        <v>325</v>
       </c>
       <c r="I19" s="7">
-        <v>713862</v>
+        <v>334051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>1142</v>
+        <v>586</v>
       </c>
       <c r="N19" s="7">
-        <v>1242292</v>
+        <v>621628</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,49 +4536,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D20" s="7">
-        <v>31206</v>
+        <v>22209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>29113</v>
+        <v>19945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N20" s="7">
-        <v>60320</v>
+        <v>42154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,10 +4587,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4197,10 +4602,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4212,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4229,55 +4634,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1761</v>
+        <v>211</v>
       </c>
       <c r="D22" s="7">
-        <v>1894130</v>
+        <v>237815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>2260</v>
+        <v>340</v>
       </c>
       <c r="I22" s="7">
-        <v>2448055</v>
+        <v>377611</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>4021</v>
+        <v>551</v>
       </c>
       <c r="N22" s="7">
-        <v>4342185</v>
+        <v>615426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,49 +4691,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1448</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>1532649</v>
+        <v>12036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>1038</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>1110254</v>
+        <v>11368</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>2486</v>
+        <v>21</v>
       </c>
       <c r="N23" s="7">
-        <v>2642903</v>
+        <v>23404</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,63 +4742,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1716</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1846202</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2220</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2404125</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3936</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4250328</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1493</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1580577</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1078</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1154184</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2571</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2734760</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4406,8 +4967,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660E41EA-2DA6-4285-8FCF-B4AF542AB96B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A611EF-055E-4533-B935-20AB613730C2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4423,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,49 +5085,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7">
-        <v>130223</v>
+        <v>124685</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>140263</v>
+        <v>137271</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N4" s="7">
-        <v>270486</v>
+        <v>261957</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,49 +5136,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D5" s="7">
-        <v>289240</v>
+        <v>294778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I5" s="7">
-        <v>255492</v>
+        <v>258484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="N5" s="7">
-        <v>544732</v>
+        <v>553261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,49 +5240,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D7" s="7">
-        <v>173138</v>
+        <v>167985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I7" s="7">
-        <v>228620</v>
+        <v>224936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N7" s="7">
-        <v>401757</v>
+        <v>392921</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,49 +5291,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D8" s="7">
-        <v>417358</v>
+        <v>422511</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I8" s="7">
-        <v>334924</v>
+        <v>338608</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="N8" s="7">
-        <v>752283</v>
+        <v>761119</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,49 +5395,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D10" s="7">
-        <v>232534</v>
+        <v>223022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I10" s="7">
-        <v>322009</v>
+        <v>315427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="N10" s="7">
-        <v>554542</v>
+        <v>538450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,49 +5446,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D11" s="7">
-        <v>436563</v>
+        <v>446075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="I11" s="7">
-        <v>339377</v>
+        <v>345959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="N11" s="7">
-        <v>775941</v>
+        <v>792033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,49 +5550,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D13" s="7">
-        <v>347749</v>
+        <v>333615</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I13" s="7">
-        <v>391441</v>
+        <v>383218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="N13" s="7">
-        <v>739190</v>
+        <v>716833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,49 +5601,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D14" s="7">
-        <v>298299</v>
+        <v>312433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>257636</v>
+        <v>265859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="N14" s="7">
-        <v>555935</v>
+        <v>578292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,49 +5705,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D16" s="7">
-        <v>315798</v>
+        <v>305422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="I16" s="7">
-        <v>402697</v>
+        <v>391358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="N16" s="7">
-        <v>718494</v>
+        <v>696780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,49 +5756,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D17" s="7">
-        <v>162120</v>
+        <v>172496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>94152</v>
+        <v>105491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="N17" s="7">
-        <v>256273</v>
+        <v>277987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,55 +5854,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>568</v>
+        <v>283</v>
       </c>
       <c r="D19" s="7">
-        <v>535102</v>
+        <v>292612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
-        <v>610</v>
+        <v>316</v>
       </c>
       <c r="I19" s="7">
-        <v>725756</v>
+        <v>335888</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
-        <v>1178</v>
+        <v>599</v>
       </c>
       <c r="N19" s="7">
-        <v>1260858</v>
+        <v>628500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5911,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7">
-        <v>56226</v>
+        <v>41718</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I20" s="7">
-        <v>52175</v>
+        <v>41874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>108401</v>
+        <v>83592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,10 +5962,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5416,10 +5977,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5431,10 +5992,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5448,55 +6009,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1669</v>
+        <v>282</v>
       </c>
       <c r="D22" s="7">
-        <v>1734544</v>
+        <v>239504</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
-        <v>2021</v>
+        <v>289</v>
       </c>
       <c r="I22" s="7">
-        <v>2210784</v>
+        <v>384803</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
-        <v>3690</v>
+        <v>571</v>
       </c>
       <c r="N22" s="7">
-        <v>3945329</v>
+        <v>624307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,49 +6066,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1562</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>1659806</v>
+        <v>17494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
-        <v>1317</v>
+        <v>12</v>
       </c>
       <c r="I23" s="7">
-        <v>1333758</v>
+        <v>15366</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
-        <v>2879</v>
+        <v>32</v>
       </c>
       <c r="N23" s="7">
-        <v>2993563</v>
+        <v>32860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,63 +6117,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1626</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1686846</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1985</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2172901</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3611</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3859748</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1605</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1707504</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1353</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1371641</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2958</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3079144</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5625,8 +6342,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98895613-A6C5-4863-97D5-8EA4FCD67D4F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D7DA5-85F7-4D15-893F-8A72758EA716}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5642,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,49 +6460,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>359253</v>
+        <v>103437</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>327781</v>
+        <v>74660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7">
-        <v>687034</v>
+        <v>178097</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,49 +6511,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="D5" s="7">
-        <v>18426</v>
+        <v>296550</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="I5" s="7">
-        <v>27176</v>
+        <v>238540</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="N5" s="7">
-        <v>45602</v>
+        <v>535090</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +6565,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5863,7 +6580,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5878,7 +6595,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5898,49 +6615,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>412637</v>
+        <v>95938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="H7" s="7">
-        <v>439</v>
+        <v>99</v>
       </c>
       <c r="I7" s="7">
-        <v>463593</v>
+        <v>100977</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="M7" s="7">
-        <v>729</v>
+        <v>164</v>
       </c>
       <c r="N7" s="7">
-        <v>876230</v>
+        <v>196915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,49 +6666,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="D8" s="7">
-        <v>15759</v>
+        <v>327609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="I8" s="7">
-        <v>35622</v>
+        <v>411116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>599</v>
       </c>
       <c r="N8" s="7">
-        <v>51381</v>
+        <v>738725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6720,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6018,7 +6735,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6033,7 +6750,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6053,49 +6770,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>518</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7">
-        <v>534215</v>
+        <v>110297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
-        <v>800</v>
+        <v>222</v>
       </c>
       <c r="I10" s="7">
-        <v>576726</v>
+        <v>142068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>486</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="M10" s="7">
-        <v>1318</v>
+        <v>337</v>
       </c>
       <c r="N10" s="7">
-        <v>1110941</v>
+        <v>252365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,49 +6821,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>431</v>
       </c>
       <c r="D11" s="7">
-        <v>23037</v>
+        <v>426041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="I11" s="7">
-        <v>33721</v>
+        <v>449934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>1057</v>
       </c>
       <c r="N11" s="7">
-        <v>56758</v>
+        <v>875975</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,7 +6875,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6173,7 +6890,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6188,7 +6905,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6208,49 +6925,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>639</v>
+        <v>197</v>
       </c>
       <c r="D13" s="7">
-        <v>701600</v>
+        <v>194400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
-        <v>1100</v>
+        <v>408</v>
       </c>
       <c r="I13" s="7">
-        <v>721760</v>
+        <v>246553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
-        <v>1739</v>
+        <v>605</v>
       </c>
       <c r="N13" s="7">
-        <v>1423361</v>
+        <v>440954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,49 +6976,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>468</v>
       </c>
       <c r="D14" s="7">
-        <v>22390</v>
+        <v>693386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>733</v>
       </c>
       <c r="I14" s="7">
-        <v>25501</v>
+        <v>466328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
+        <v>1201</v>
       </c>
       <c r="N14" s="7">
-        <v>47891</v>
+        <v>1159713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,7 +7030,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6328,7 +7045,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6343,7 +7060,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6363,49 +7080,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>642</v>
+        <v>284</v>
       </c>
       <c r="D16" s="7">
-        <v>580150</v>
+        <v>247077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="H16" s="7">
-        <v>974</v>
+        <v>490</v>
       </c>
       <c r="I16" s="7">
-        <v>578630</v>
+        <v>272289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="M16" s="7">
-        <v>1616</v>
+        <v>774</v>
       </c>
       <c r="N16" s="7">
-        <v>1158780</v>
+        <v>519366</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,49 +7131,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>379</v>
       </c>
       <c r="D17" s="7">
-        <v>20007</v>
+        <v>314157</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="I17" s="7">
-        <v>18433</v>
+        <v>275616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="M17" s="7">
-        <v>49</v>
+        <v>891</v>
       </c>
       <c r="N17" s="7">
-        <v>38440</v>
+        <v>589773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +7185,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6483,7 +7200,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6498,7 +7215,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6512,55 +7229,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1014</v>
+        <v>271</v>
       </c>
       <c r="D19" s="7">
-        <v>687474</v>
+        <v>173558</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>449</v>
+        <v>536</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="H19" s="7">
-        <v>1683</v>
+        <v>490</v>
       </c>
       <c r="I19" s="7">
-        <v>1012720</v>
+        <v>443732</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
-        <v>2697</v>
+        <v>761</v>
       </c>
       <c r="N19" s="7">
-        <v>1700194</v>
+        <v>617290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,49 +7286,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>10280</v>
+        <v>194607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>455</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="I20" s="7">
-        <v>13917</v>
+        <v>164636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
-        <v>39</v>
+        <v>636</v>
       </c>
       <c r="N20" s="7">
-        <v>24198</v>
+        <v>359243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,10 +7337,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6635,10 +7352,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6650,10 +7367,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6667,55 +7384,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3263</v>
+        <v>298</v>
       </c>
       <c r="D22" s="7">
-        <v>3275329</v>
+        <v>179994</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
-        <v>5188</v>
+        <v>596</v>
       </c>
       <c r="I22" s="7">
-        <v>3681210</v>
+        <v>284513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
-        <v>8451</v>
+        <v>894</v>
       </c>
       <c r="N22" s="7">
-        <v>6956539</v>
+        <v>464507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,49 +7441,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="D23" s="7">
-        <v>109899</v>
+        <v>102765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="H23" s="7">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="I23" s="7">
-        <v>154371</v>
+        <v>141318</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>567</v>
       </c>
       <c r="M23" s="7">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="N23" s="7">
-        <v>264270</v>
+        <v>244083</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,63 +7492,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1262</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1104702</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2349</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1564793</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3611</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2669494</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2114</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2355115</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3018</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2147487</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5132</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4502603</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
